--- a/data/norm.cause-of-death-2006.xlsx
+++ b/data/norm.cause-of-death-2006.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,91 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>5-9</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>15-19</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>20-24</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>25-29</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>30-34</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>35-39</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>40-44</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>45-49</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>50-54</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>55-59</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>60-64</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>65-69</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>70-74</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>75-79</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>80-84</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>85-120</t>
         </is>
       </c>
@@ -466,9 +551,60 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,9 +625,60 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,9 +699,60 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -535,9 +773,60 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -561,6 +850,57 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -581,9 +921,60 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E7" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -607,6 +998,57 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,6 +1074,57 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -650,9 +1143,60 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -673,9 +1217,60 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="E11" t="n">
+        <v>51</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -696,9 +1291,60 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -722,6 +1368,57 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11</v>
+      </c>
+      <c r="V13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -745,6 +1442,57 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+      <c r="T14" t="n">
+        <v>17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
         <v>15</v>
       </c>
     </row>
@@ -765,9 +1513,60 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -793,6 +1592,57 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -811,9 +1661,60 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1443</v>
+        <v>2886</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -834,9 +1735,60 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>740</v>
       </c>
       <c r="E18" t="n">
+        <v>87</v>
+      </c>
+      <c r="F18" t="n">
+        <v>41</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -857,9 +1809,60 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E19" t="n">
+        <v>29</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>37</v>
+      </c>
+      <c r="H19" t="n">
+        <v>39</v>
+      </c>
+      <c r="I19" t="n">
+        <v>60</v>
+      </c>
+      <c r="J19" t="n">
+        <v>78</v>
+      </c>
+      <c r="K19" t="n">
+        <v>68</v>
+      </c>
+      <c r="L19" t="n">
+        <v>93</v>
+      </c>
+      <c r="M19" t="n">
+        <v>107</v>
+      </c>
+      <c r="N19" t="n">
+        <v>158</v>
+      </c>
+      <c r="O19" t="n">
+        <v>204</v>
+      </c>
+      <c r="P19" t="n">
+        <v>275</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>332</v>
+      </c>
+      <c r="R19" t="n">
+        <v>624</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1303</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1735</v>
+      </c>
+      <c r="V19" t="n">
         <v>3058</v>
       </c>
     </row>
@@ -880,9 +1883,60 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="E20" t="n">
+        <v>92</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,7 +1951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,6 +1982,91 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>5-9</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>10-14</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>15-19</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>20-24</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>25-29</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>30-34</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>35-39</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>40-44</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>45-49</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>50-54</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>55-59</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>60-64</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>65-69</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>70-74</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>75-79</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>80-84</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>85-120</t>
         </is>
       </c>
@@ -949,9 +2088,60 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,9 +2162,60 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
+        <v>25</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -995,9 +2236,60 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,9 +2310,60 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1041,9 +2384,60 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1064,9 +2458,60 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
+        <v>22</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1090,6 +2535,57 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1115,6 +2611,57 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1133,9 +2680,60 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1156,9 +2754,60 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="E11" t="n">
+        <v>35</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1179,9 +2828,60 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1205,6 +2905,57 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8</v>
+      </c>
+      <c r="S13" t="n">
+        <v>7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" t="n">
+        <v>9</v>
+      </c>
+      <c r="V13" t="n">
         <v>134</v>
       </c>
     </row>
@@ -1228,6 +2979,57 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>11</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13</v>
+      </c>
+      <c r="S14" t="n">
+        <v>19</v>
+      </c>
+      <c r="T14" t="n">
+        <v>17</v>
+      </c>
+      <c r="U14" t="n">
+        <v>22</v>
+      </c>
+      <c r="V14" t="n">
         <v>225</v>
       </c>
     </row>
@@ -1248,9 +3050,60 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1276,6 +3129,57 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1294,9 +3198,60 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1166</v>
+        <v>2332</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>2609</v>
       </c>
     </row>
@@ -1317,9 +3272,60 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="E18" t="n">
+        <v>82</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>1121</v>
       </c>
     </row>
@@ -1340,9 +3346,60 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E19" t="n">
+        <v>23</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" t="n">
+        <v>43</v>
+      </c>
+      <c r="J19" t="n">
+        <v>41</v>
+      </c>
+      <c r="K19" t="n">
+        <v>38</v>
+      </c>
+      <c r="L19" t="n">
+        <v>44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>56</v>
+      </c>
+      <c r="N19" t="n">
+        <v>73</v>
+      </c>
+      <c r="O19" t="n">
+        <v>84</v>
+      </c>
+      <c r="P19" t="n">
+        <v>152</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>220</v>
+      </c>
+      <c r="R19" t="n">
+        <v>423</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1027</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1356</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2200</v>
+      </c>
+      <c r="V19" t="n">
         <v>23434</v>
       </c>
     </row>
@@ -1363,9 +3420,60 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="E20" t="n">
+        <v>71</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2006.xlsx
+++ b/data/norm.cause-of-death-2006.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,95 +440,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -551,10 +546,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -602,9 +597,6 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -625,10 +617,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -676,9 +668,6 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -699,10 +688,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -750,9 +739,6 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -773,10 +759,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -824,9 +810,6 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -847,10 +830,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -898,9 +881,6 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -921,10 +901,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -972,9 +952,6 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,57 +975,54 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
-      </c>
-      <c r="V8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1122,9 +1096,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1143,10 +1114,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1194,9 +1165,6 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,10 +1185,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1268,9 +1236,6 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1291,10 +1256,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1342,9 +1307,6 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1374,51 +1336,48 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R13" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T13" t="n">
         <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
-      </c>
-      <c r="V13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1448,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1463,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
         <v>4</v>
@@ -1478,21 +1437,18 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
-      </c>
-      <c r="V14" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1513,10 +1469,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1564,9 +1520,6 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1640,9 +1593,6 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1661,7 +1611,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2886</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1712,9 +1662,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,62 +1682,59 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>740</v>
+        <v>87</v>
       </c>
       <c r="E18" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H18" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="n">
         <v>8</v>
       </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
         <v>6</v>
       </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
       <c r="R18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>1</v>
       </c>
-      <c r="V18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1809,60 +1753,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H19" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="I19" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J19" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K19" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="L19" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="M19" t="n">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="N19" t="n">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="O19" t="n">
-        <v>204</v>
+        <v>275</v>
       </c>
       <c r="P19" t="n">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="Q19" t="n">
-        <v>332</v>
+        <v>624</v>
       </c>
       <c r="R19" t="n">
-        <v>624</v>
+        <v>1080</v>
       </c>
       <c r="S19" t="n">
-        <v>1080</v>
+        <v>1303</v>
       </c>
       <c r="T19" t="n">
-        <v>1303</v>
+        <v>1735</v>
       </c>
       <c r="U19" t="n">
-        <v>1735</v>
-      </c>
-      <c r="V19" t="n">
         <v>3058</v>
       </c>
     </row>
@@ -1883,10 +1824,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E20" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1934,9 +1875,6 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1951,7 +1889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,95 +1915,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -2088,10 +2021,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2139,9 +2072,6 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,10 +2092,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2213,9 +2143,6 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2239,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2287,9 +2214,6 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2310,10 +2234,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2361,9 +2285,6 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,10 +2305,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2435,9 +2356,6 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2458,10 +2376,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2509,9 +2427,6 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2556,36 +2471,33 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2659,9 +2571,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2680,10 +2589,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2731,9 +2640,6 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2754,10 +2660,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2805,9 +2711,6 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2828,10 +2731,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2879,9 +2782,6 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2911,51 +2811,48 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>3</v>
       </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
+        <v>8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="n">
-        <v>8</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
-      </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>9</v>
-      </c>
-      <c r="V13" t="n">
         <v>134</v>
       </c>
     </row>
@@ -2979,57 +2876,54 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T14" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
-      </c>
-      <c r="V14" t="n">
         <v>225</v>
       </c>
     </row>
@@ -3050,10 +2944,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -3101,9 +2995,6 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3177,9 +3068,6 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3198,7 +3086,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2332</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -3249,9 +3137,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>2609</v>
       </c>
     </row>
@@ -3272,60 +3157,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>576</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
         <v>8</v>
       </c>
-      <c r="J18" t="n">
-        <v>9</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>7</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>8</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
         <v>7</v>
       </c>
-      <c r="N18" t="n">
-        <v>8</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="n">
-        <v>7</v>
-      </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
         <v>1121</v>
       </c>
     </row>
@@ -3346,60 +3228,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H19" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I19" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K19" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L19" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M19" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="N19" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O19" t="n">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="P19" t="n">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="Q19" t="n">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="R19" t="n">
-        <v>423</v>
+        <v>1027</v>
       </c>
       <c r="S19" t="n">
-        <v>1027</v>
+        <v>1356</v>
       </c>
       <c r="T19" t="n">
-        <v>1356</v>
+        <v>2200</v>
       </c>
       <c r="U19" t="n">
-        <v>2200</v>
-      </c>
-      <c r="V19" t="n">
         <v>23434</v>
       </c>
     </row>
@@ -3420,10 +3299,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="E20" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -3471,9 +3350,6 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2006.xlsx
+++ b/data/norm.cause-of-death-2006.xlsx
@@ -684,7 +684,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
